--- a/Trunk/Doc/Sprint-Backlog-Sprint-06#.xlsx
+++ b/Trunk/Doc/Sprint-Backlog-Sprint-06#.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="41">
   <si>
     <t>d1</t>
   </si>
@@ -117,9 +117,6 @@
     <t>Mateus Revoredo</t>
   </si>
   <si>
-    <t>Douglas Dinarte</t>
-  </si>
-  <si>
     <t>Como usuário gostaria fazer um comentário do evento que participei.</t>
   </si>
   <si>
@@ -147,7 +144,7 @@
     <t>Marcus Vinicios</t>
   </si>
   <si>
-    <t>Tarluna</t>
+    <t>Criar Marquinas Virtuais para entrega do projeto.</t>
   </si>
 </sst>
 </file>
@@ -513,12 +510,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -529,6 +520,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -762,7 +759,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -969,19 +965,19 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1180,11 +1176,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="93903872"/>
-        <c:axId val="95486720"/>
+        <c:axId val="93822336"/>
+        <c:axId val="93828224"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="93903872"/>
+        <c:axId val="93822336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1204,7 +1200,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="95486720"/>
+        <c:crossAx val="93828224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1212,7 +1208,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="95486720"/>
+        <c:axId val="93828224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1239,14 +1235,13 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93903872"/>
+        <c:crossAx val="93822336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1584,7 +1579,7 @@
   <dimension ref="A1:R45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S29" sqref="S29"/>
+      <selection activeCell="P39" sqref="P39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1600,82 +1595,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
+      <c r="A1" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
     </row>
     <row r="3" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
       <c r="E4" s="3" t="s">
         <v>6</v>
       </c>
@@ -1720,10 +1715,10 @@
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
       <c r="E5" s="3">
         <f>SUM(E7:E9)+SUM(E11:E13)</f>
         <v>5</v>
@@ -1762,23 +1757,23 @@
       </c>
       <c r="N5" s="11">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="O5" s="11">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="P5" s="11">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="11">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="R5" s="11">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="30" x14ac:dyDescent="0.25">
@@ -1786,7 +1781,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4">
@@ -1846,19 +1841,19 @@
         <v>2</v>
       </c>
       <c r="N7" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O7" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P7" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R7" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -1900,19 +1895,19 @@
         <v>0.5</v>
       </c>
       <c r="N8" s="10">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O8" s="10">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="P8" s="10">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="10">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R8" s="10">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -1954,19 +1949,19 @@
         <v>0.5</v>
       </c>
       <c r="N9" s="10">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O9" s="10">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="P9" s="10">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="10">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R9" s="10">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="30" x14ac:dyDescent="0.25">
@@ -1974,7 +1969,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4">
@@ -2001,7 +1996,7 @@
         <v>21</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="D11" s="9">
         <v>6</v>
@@ -2040,13 +2035,13 @@
         <v>3</v>
       </c>
       <c r="P11" s="9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q11" s="9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R11" s="9">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
@@ -2055,7 +2050,7 @@
         <v>22</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>27</v>
@@ -2094,13 +2089,13 @@
         <v>0.5</v>
       </c>
       <c r="P12" s="9">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="9">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R12" s="9">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
@@ -2109,7 +2104,7 @@
         <v>23</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>27</v>
@@ -2148,13 +2143,13 @@
         <v>0.5</v>
       </c>
       <c r="P13" s="9">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Q13" s="9">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R13" s="9">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="30" x14ac:dyDescent="0.25">
@@ -2189,7 +2184,7 @@
         <v>21</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D15" s="9">
         <v>5</v>
@@ -2201,40 +2196,40 @@
         <v>5</v>
       </c>
       <c r="G15" s="9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H15" s="9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I15" s="9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J15" s="9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K15" s="9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L15" s="9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M15" s="9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N15" s="9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O15" s="9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P15" s="9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R15" s="9">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
@@ -2243,7 +2238,7 @@
         <v>22</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>27</v>
@@ -2282,13 +2277,13 @@
         <v>0.5</v>
       </c>
       <c r="P16" s="9">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Q16" s="9">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R16" s="9">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
@@ -2297,7 +2292,7 @@
         <v>23</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>27</v>
@@ -2336,13 +2331,13 @@
         <v>0.5</v>
       </c>
       <c r="P17" s="9">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="9">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R17" s="9">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="30" x14ac:dyDescent="0.25">
@@ -2350,7 +2345,7 @@
         <v>10</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4">
@@ -2410,19 +2405,19 @@
         <v>1</v>
       </c>
       <c r="N19" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O19" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P19" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R19" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
@@ -2464,19 +2459,19 @@
         <v>0.5</v>
       </c>
       <c r="N20" s="9">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O20" s="9">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="P20" s="9">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="9">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R20" s="9">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
@@ -2518,19 +2513,19 @@
         <v>0.5</v>
       </c>
       <c r="N21" s="9">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O21" s="9">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="P21" s="9">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Q21" s="9">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R21" s="9">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:18" ht="30" x14ac:dyDescent="0.25">
@@ -2538,7 +2533,7 @@
         <v>11</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4">
@@ -2574,43 +2569,43 @@
         <v>8</v>
       </c>
       <c r="F23" s="9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G23" s="9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H23" s="9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I23" s="9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J23" s="9">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K23" s="9">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="L23" s="9">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="M23" s="9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N23" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O23" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P23" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R23" s="9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
@@ -2652,19 +2647,19 @@
         <v>1</v>
       </c>
       <c r="N24" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O24" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P24" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R24" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
@@ -2706,19 +2701,19 @@
         <v>1</v>
       </c>
       <c r="N25" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O25" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P25" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R25" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:18" ht="30" x14ac:dyDescent="0.25">
@@ -2726,7 +2721,7 @@
         <v>41</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4">
@@ -2914,7 +2909,7 @@
         <v>42</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4">
@@ -2941,21 +2936,21 @@
         <v>21</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D31" s="9">
         <v>2</v>
       </c>
-      <c r="E31" s="17">
+      <c r="E31" s="15">
         <v>2</v>
       </c>
-      <c r="F31" s="17">
+      <c r="F31" s="15">
         <v>2</v>
       </c>
-      <c r="G31" s="17">
+      <c r="G31" s="15">
         <v>2</v>
       </c>
-      <c r="H31" s="17">
+      <c r="H31" s="15">
         <v>2</v>
       </c>
       <c r="I31" s="9">
@@ -2995,21 +2990,21 @@
         <v>22</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D32" s="10">
         <v>1</v>
       </c>
-      <c r="E32" s="17">
-        <v>1</v>
-      </c>
-      <c r="F32" s="17">
-        <v>1</v>
-      </c>
-      <c r="G32" s="17">
-        <v>1</v>
-      </c>
-      <c r="H32" s="17">
+      <c r="E32" s="15">
+        <v>1</v>
+      </c>
+      <c r="F32" s="15">
+        <v>1</v>
+      </c>
+      <c r="G32" s="15">
+        <v>1</v>
+      </c>
+      <c r="H32" s="15">
         <v>1</v>
       </c>
       <c r="I32" s="9">
@@ -3049,21 +3044,21 @@
         <v>23</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D33" s="10">
         <v>1</v>
       </c>
-      <c r="E33" s="17">
-        <v>1</v>
-      </c>
-      <c r="F33" s="17">
-        <v>1</v>
-      </c>
-      <c r="G33" s="17">
-        <v>1</v>
-      </c>
-      <c r="H33" s="17">
+      <c r="E33" s="15">
+        <v>1</v>
+      </c>
+      <c r="F33" s="15">
+        <v>1</v>
+      </c>
+      <c r="G33" s="15">
+        <v>1</v>
+      </c>
+      <c r="H33" s="15">
         <v>1</v>
       </c>
       <c r="I33" s="9">
@@ -3102,7 +3097,7 @@
         <v>43</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4">
@@ -3129,42 +3124,42 @@
         <v>21</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D35" s="9">
         <v>3</v>
       </c>
-      <c r="E35" s="17">
+      <c r="E35" s="15">
         <v>3</v>
       </c>
-      <c r="F35" s="17">
+      <c r="F35" s="15">
         <v>3</v>
       </c>
-      <c r="G35" s="17">
+      <c r="G35" s="15">
         <v>3</v>
       </c>
-      <c r="H35" s="17">
+      <c r="H35" s="15">
         <v>3</v>
       </c>
-      <c r="I35" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="J35" s="17">
-        <v>0</v>
-      </c>
-      <c r="K35" s="17">
-        <v>0</v>
-      </c>
-      <c r="L35" s="17">
-        <v>0</v>
-      </c>
-      <c r="M35" s="17">
-        <v>0</v>
-      </c>
-      <c r="N35" s="17">
-        <v>0</v>
-      </c>
-      <c r="O35" s="17">
+      <c r="I35" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="J35" s="15">
+        <v>0</v>
+      </c>
+      <c r="K35" s="15">
+        <v>0</v>
+      </c>
+      <c r="L35" s="15">
+        <v>0</v>
+      </c>
+      <c r="M35" s="15">
+        <v>0</v>
+      </c>
+      <c r="N35" s="15">
+        <v>0</v>
+      </c>
+      <c r="O35" s="15">
         <v>0</v>
       </c>
       <c r="P35" s="9">
@@ -3183,267 +3178,255 @@
         <v>22</v>
       </c>
       <c r="C36" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D36" s="10">
+        <v>1</v>
+      </c>
+      <c r="E36" s="15">
+        <v>1</v>
+      </c>
+      <c r="F36" s="15">
+        <v>1</v>
+      </c>
+      <c r="G36" s="15">
+        <v>1</v>
+      </c>
+      <c r="H36" s="15">
+        <v>1</v>
+      </c>
+      <c r="I36" s="15">
+        <v>1</v>
+      </c>
+      <c r="J36" s="15">
+        <v>0</v>
+      </c>
+      <c r="K36" s="15">
+        <v>0</v>
+      </c>
+      <c r="L36" s="15">
+        <v>0</v>
+      </c>
+      <c r="M36" s="15">
+        <v>0</v>
+      </c>
+      <c r="N36" s="15">
+        <v>0</v>
+      </c>
+      <c r="O36" s="15">
+        <v>0</v>
+      </c>
+      <c r="P36" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="9">
+        <v>0</v>
+      </c>
+      <c r="R36" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A37" s="12"/>
+      <c r="B37" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D37" s="12">
+        <v>1</v>
+      </c>
+      <c r="E37" s="15">
+        <v>1</v>
+      </c>
+      <c r="F37" s="15">
+        <v>1</v>
+      </c>
+      <c r="G37" s="15">
+        <v>1</v>
+      </c>
+      <c r="H37" s="15">
+        <v>1</v>
+      </c>
+      <c r="I37" s="15">
+        <v>1</v>
+      </c>
+      <c r="J37" s="15">
+        <v>0</v>
+      </c>
+      <c r="K37" s="15">
+        <v>0</v>
+      </c>
+      <c r="L37" s="15">
+        <v>0</v>
+      </c>
+      <c r="M37" s="15">
+        <v>0</v>
+      </c>
+      <c r="N37" s="15">
+        <v>0</v>
+      </c>
+      <c r="O37" s="15">
+        <v>0</v>
+      </c>
+      <c r="P37" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="13">
+        <v>0</v>
+      </c>
+      <c r="R37" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <v>43</v>
+      </c>
+      <c r="B38" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D36" s="10">
-        <v>1</v>
-      </c>
-      <c r="E36" s="17">
-        <v>1</v>
-      </c>
-      <c r="F36" s="17">
-        <v>1</v>
-      </c>
-      <c r="G36" s="17">
-        <v>1</v>
-      </c>
-      <c r="H36" s="17">
-        <v>1</v>
-      </c>
-      <c r="I36" s="17">
-        <v>0</v>
-      </c>
-      <c r="J36" s="17">
-        <v>0</v>
-      </c>
-      <c r="K36" s="17">
-        <v>0</v>
-      </c>
-      <c r="L36" s="17">
-        <v>0</v>
-      </c>
-      <c r="M36" s="17">
-        <v>0</v>
-      </c>
-      <c r="N36" s="17">
-        <v>0</v>
-      </c>
-      <c r="O36" s="17">
-        <v>0</v>
-      </c>
-      <c r="P36" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="9">
-        <v>0</v>
-      </c>
-      <c r="R36" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="14"/>
-      <c r="B37" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D37" s="14">
-        <v>1</v>
-      </c>
-      <c r="E37" s="17">
-        <v>1</v>
-      </c>
-      <c r="F37" s="17">
-        <v>1</v>
-      </c>
-      <c r="G37" s="17">
-        <v>1</v>
-      </c>
-      <c r="H37" s="17">
-        <v>1</v>
-      </c>
-      <c r="I37" s="17">
-        <v>0</v>
-      </c>
-      <c r="J37" s="17">
-        <v>0</v>
-      </c>
-      <c r="K37" s="17">
-        <v>0</v>
-      </c>
-      <c r="L37" s="17">
-        <v>0</v>
-      </c>
-      <c r="M37" s="17">
-        <v>0</v>
-      </c>
-      <c r="N37" s="17">
-        <v>0</v>
-      </c>
-      <c r="O37" s="17">
-        <v>0</v>
-      </c>
-      <c r="P37" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="15">
-        <v>0</v>
-      </c>
-      <c r="R37" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="16"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="16"/>
-      <c r="I38" s="16"/>
-      <c r="J38" s="16"/>
-      <c r="K38" s="16"/>
-      <c r="L38" s="16"/>
-      <c r="M38" s="16"/>
-      <c r="N38" s="16"/>
-      <c r="O38" s="16"/>
-      <c r="P38" s="16"/>
-      <c r="Q38" s="16"/>
-      <c r="R38" s="16"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4">
+        <v>8</v>
+      </c>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
+      <c r="O38" s="4"/>
+      <c r="P38" s="4"/>
+      <c r="Q38" s="4"/>
+      <c r="R38" s="4"/>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="16"/>
-      <c r="B39" s="16"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="16"/>
-      <c r="H39" s="16"/>
-      <c r="I39" s="16"/>
-      <c r="J39" s="16"/>
-      <c r="K39" s="16"/>
-      <c r="L39" s="16"/>
-      <c r="M39" s="16"/>
-      <c r="N39" s="16"/>
-      <c r="O39" s="16"/>
-      <c r="P39" s="16"/>
-      <c r="Q39" s="16"/>
-      <c r="R39" s="16"/>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="16"/>
-      <c r="B40" s="16"/>
-      <c r="C40" s="16"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="16"/>
-      <c r="H40" s="16"/>
-      <c r="I40" s="16"/>
-      <c r="J40" s="16"/>
-      <c r="K40" s="16"/>
-      <c r="L40" s="16"/>
-      <c r="M40" s="16"/>
-      <c r="N40" s="16"/>
-      <c r="O40" s="16"/>
-      <c r="P40" s="16"/>
-      <c r="Q40" s="16"/>
-      <c r="R40" s="16"/>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="16"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="16"/>
-      <c r="H41" s="16"/>
-      <c r="I41" s="16"/>
-      <c r="J41" s="16"/>
-      <c r="K41" s="16"/>
-      <c r="L41" s="16"/>
-      <c r="M41" s="16"/>
-      <c r="N41" s="16"/>
-      <c r="O41" s="16"/>
-      <c r="P41" s="16"/>
-      <c r="Q41" s="16"/>
-      <c r="R41" s="16"/>
+      <c r="A39" s="9"/>
+      <c r="B39" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D39" s="9">
+        <v>8</v>
+      </c>
+      <c r="E39" s="15">
+        <v>8</v>
+      </c>
+      <c r="F39" s="15">
+        <v>8</v>
+      </c>
+      <c r="G39" s="15">
+        <v>8</v>
+      </c>
+      <c r="H39" s="15">
+        <v>8</v>
+      </c>
+      <c r="I39" s="15">
+        <v>10</v>
+      </c>
+      <c r="J39" s="15">
+        <v>0</v>
+      </c>
+      <c r="K39" s="15">
+        <v>0</v>
+      </c>
+      <c r="L39" s="15">
+        <v>0</v>
+      </c>
+      <c r="M39" s="15">
+        <v>0</v>
+      </c>
+      <c r="N39" s="15">
+        <v>0</v>
+      </c>
+      <c r="O39" s="15">
+        <v>0</v>
+      </c>
+      <c r="P39" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="9">
+        <v>0</v>
+      </c>
+      <c r="R39" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="16"/>
-      <c r="B42" s="16"/>
-      <c r="C42" s="16"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="16"/>
-      <c r="H42" s="16"/>
-      <c r="I42" s="16"/>
-      <c r="J42" s="16"/>
-      <c r="K42" s="16"/>
-      <c r="L42" s="16"/>
-      <c r="M42" s="16"/>
-      <c r="N42" s="16"/>
-      <c r="O42" s="16"/>
-      <c r="P42" s="16"/>
-      <c r="Q42" s="16"/>
-      <c r="R42" s="16"/>
+      <c r="A42" s="14"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="14"/>
+      <c r="K42" s="14"/>
+      <c r="L42" s="14"/>
+      <c r="M42" s="14"/>
+      <c r="N42" s="14"/>
+      <c r="O42" s="14"/>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" s="16"/>
-      <c r="B43" s="16"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="16"/>
-      <c r="G43" s="16"/>
-      <c r="H43" s="16"/>
-      <c r="I43" s="16"/>
-      <c r="J43" s="16"/>
-      <c r="K43" s="16"/>
-      <c r="L43" s="16"/>
-      <c r="M43" s="16"/>
-      <c r="N43" s="16"/>
-      <c r="O43" s="16"/>
-      <c r="P43" s="16"/>
-      <c r="Q43" s="16"/>
-      <c r="R43" s="16"/>
+      <c r="A43" s="14"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="14"/>
+      <c r="K43" s="14"/>
+      <c r="L43" s="14"/>
+      <c r="M43" s="14"/>
+      <c r="N43" s="14"/>
+      <c r="O43" s="14"/>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44" s="16"/>
-      <c r="B44" s="16"/>
-      <c r="C44" s="16"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="16"/>
-      <c r="G44" s="16"/>
-      <c r="H44" s="16"/>
-      <c r="I44" s="16"/>
-      <c r="J44" s="16"/>
-      <c r="K44" s="16"/>
-      <c r="L44" s="16"/>
-      <c r="M44" s="16"/>
-      <c r="N44" s="16"/>
-      <c r="O44" s="16"/>
-      <c r="P44" s="16"/>
-      <c r="Q44" s="16"/>
-      <c r="R44" s="16"/>
+      <c r="A44" s="14"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="14"/>
+      <c r="J44" s="14"/>
+      <c r="K44" s="14"/>
+      <c r="L44" s="14"/>
+      <c r="M44" s="14"/>
+      <c r="N44" s="14"/>
+      <c r="O44" s="14"/>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" s="16"/>
-      <c r="B45" s="16"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="16"/>
-      <c r="G45" s="16"/>
-      <c r="H45" s="16"/>
-      <c r="I45" s="16"/>
-      <c r="J45" s="16"/>
-      <c r="K45" s="16"/>
-      <c r="L45" s="16"/>
-      <c r="M45" s="16"/>
-      <c r="N45" s="16"/>
-      <c r="O45" s="16"/>
-      <c r="P45" s="16"/>
-      <c r="Q45" s="16"/>
-      <c r="R45" s="16"/>
+      <c r="A45" s="14"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="14"/>
+      <c r="J45" s="14"/>
+      <c r="K45" s="14"/>
+      <c r="L45" s="14"/>
+      <c r="M45" s="14"/>
+      <c r="N45" s="14"/>
+      <c r="O45" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3566,23 +3549,23 @@
       </c>
       <c r="K22" s="7">
         <f>'Sprint-Backlog'!N5</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L22" s="7">
         <f>'Sprint-Backlog'!O5</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M22" s="7">
         <f>'Sprint-Backlog'!P5</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N22" s="7">
         <f>'Sprint-Backlog'!Q5</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="O22" s="7">
         <f>'Sprint-Backlog'!R5</f>
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
